--- a/data/附件1：154个地点的平面直角坐标及距离数据.xlsx
+++ b/data/附件1：154个地点的平面直角坐标及距离数据.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27126"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\sishoukui\数学建模竞赛\2021年数模集训\校内赛\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\2024MCM_Pre\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B51A81A6-0301-4458-B793-ED4804428181}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D40DDA70-9E45-476C-BD89-B6D08ECF6027}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="12360" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-96" yWindow="0" windowWidth="11712" windowHeight="12336" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="地点（横、纵）坐标" sheetId="1" r:id="rId1"/>
@@ -76,12 +76,18 @@
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -98,12 +104,15 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -123,9 +132,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -163,9 +172,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -198,26 +207,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -250,26 +242,9 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -445,8 +420,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D155"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+    <sheetView tabSelected="1" topLeftCell="A24" workbookViewId="0">
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -576,7 +551,7 @@
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12">
+      <c r="A12" s="2">
         <v>11</v>
       </c>
       <c r="B12">
@@ -697,7 +672,7 @@
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A23">
+      <c r="A23" s="2">
         <v>22</v>
       </c>
       <c r="B23">
@@ -719,7 +694,7 @@
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A25">
+      <c r="A25" s="2">
         <v>24</v>
       </c>
       <c r="B25">
@@ -752,7 +727,7 @@
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A28">
+      <c r="A28" s="2">
         <v>27</v>
       </c>
       <c r="B28">
@@ -796,10 +771,10 @@
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A32">
+      <c r="A32" s="2">
         <v>31</v>
       </c>
-      <c r="B32">
+      <c r="B32" s="2">
         <v>365</v>
       </c>
       <c r="C32">
@@ -829,7 +804,7 @@
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A35">
+      <c r="A35" s="2">
         <v>34</v>
       </c>
       <c r="B35">
@@ -851,7 +826,7 @@
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A37">
+      <c r="A37" s="2">
         <v>36</v>
       </c>
       <c r="B37">
@@ -917,7 +892,7 @@
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A43">
+      <c r="A43" s="2">
         <v>42</v>
       </c>
       <c r="B43">
@@ -2169,7 +2144,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:C249"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
